--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y494"/>
+  <dimension ref="A1:Y498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
       </c>
       <c r="R493" s="2" t="inlineStr"/>
     </row>
-    <row r="494">
+    <row r="494" ht="15" customHeight="1">
       <c r="A494" t="inlineStr">
         <is>
           <t>A 40304-2023</t>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30214,6 +30214,234 @@
         <v>0</v>
       </c>
       <c r="R494" s="2" t="inlineStr"/>
+    </row>
+    <row r="495" ht="15" customHeight="1">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>A 42257-2023</t>
+        </is>
+      </c>
+      <c r="B495" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C495" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="G495" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H495" t="n">
+        <v>0</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0</v>
+      </c>
+      <c r="K495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N495" t="n">
+        <v>0</v>
+      </c>
+      <c r="O495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R495" s="2" t="inlineStr"/>
+    </row>
+    <row r="496" ht="15" customHeight="1">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>A 42253-2023</t>
+        </is>
+      </c>
+      <c r="B496" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C496" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="G496" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N496" t="n">
+        <v>0</v>
+      </c>
+      <c r="O496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R496" s="2" t="inlineStr"/>
+    </row>
+    <row r="497" ht="15" customHeight="1">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>A 42251-2023</t>
+        </is>
+      </c>
+      <c r="B497" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C497" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>2</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N497" t="n">
+        <v>0</v>
+      </c>
+      <c r="O497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R497" s="2" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>A 42262-2023</t>
+        </is>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C498" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>3</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N498" t="n">
+        <v>0</v>
+      </c>
+      <c r="O498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R498" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30218,14 +30218,14 @@
     <row r="495" ht="15" customHeight="1">
       <c r="A495" t="inlineStr">
         <is>
-          <t>A 42257-2023</t>
+          <t>A 42253-2023</t>
         </is>
       </c>
       <c r="B495" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30238,7 +30238,7 @@
         </is>
       </c>
       <c r="G495" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H495" t="n">
         <v>0</v>
@@ -30275,14 +30275,14 @@
     <row r="496" ht="15" customHeight="1">
       <c r="A496" t="inlineStr">
         <is>
-          <t>A 42253-2023</t>
+          <t>A 42262-2023</t>
         </is>
       </c>
       <c r="B496" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30295,7 +30295,7 @@
         </is>
       </c>
       <c r="G496" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H496" t="n">
         <v>0</v>
@@ -30339,7 +30339,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30389,14 +30389,14 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>A 42262-2023</t>
+          <t>A 42257-2023</t>
         </is>
       </c>
       <c r="B498" s="1" t="n">
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30409,7 +30409,7 @@
         </is>
       </c>
       <c r="G498" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H498" t="n">
         <v>0</v>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45180</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -640,27 +640,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 18213-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 18213-2022.xlsx", "A 18213-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 18213-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 18213-2022.png", "A 18213-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 18213-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 18213-2022.docx", "A 18213-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 18213-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 18213-2022.docx", "A 18213-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 18213-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 18213-2022.docx", "A 18213-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 18213-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 18213-2022.docx", "A 18213-2022")</f>
         <v/>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,31 +739,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 67268-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 67268-2021.xlsx", "A 67268-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 67268-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 67268-2021.png", "A 67268-2021")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/knärot/A 67268-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/knärot/A 67268-2021.png", "A 67268-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 67268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 67268-2021.docx", "A 67268-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 67268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 67268-2021.docx", "A 67268-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 67268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 67268-2021.docx", "A 67268-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 67268-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 67268-2021.docx", "A 67268-2021")</f>
         <v/>
       </c>
     </row>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -837,31 +837,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 29632-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 29632-2022.xlsx", "A 29632-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 29632-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 29632-2022.png", "A 29632-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/knärot/A 29632-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/knärot/A 29632-2022.png", "A 29632-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 29632-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 29632-2022.docx", "A 29632-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 29632-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 29632-2022.docx", "A 29632-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 29632-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 29632-2022.docx", "A 29632-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 29632-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 29632-2022.docx", "A 29632-2022")</f>
         <v/>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,27 +933,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 52016-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 52016-2019.xlsx", "A 52016-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 52016-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 52016-2019.png", "A 52016-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 52016-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 52016-2019.docx", "A 52016-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 52016-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 52016-2019.docx", "A 52016-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 52016-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 52016-2019.docx", "A 52016-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 52016-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 52016-2019.docx", "A 52016-2019")</f>
         <v/>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1024,27 +1024,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 22765-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 22765-2019.xlsx", "A 22765-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 22765-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 22765-2019.png", "A 22765-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 22765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 22765-2019.docx", "A 22765-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 22765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 22765-2019.docx", "A 22765-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 22765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 22765-2019.docx", "A 22765-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 22765-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 22765-2019.docx", "A 22765-2019")</f>
         <v/>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,27 +1120,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 25683-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 25683-2023.xlsx", "A 25683-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 25683-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 25683-2023.png", "A 25683-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 25683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 25683-2023.docx", "A 25683-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 25683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 25683-2023.docx", "A 25683-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 25683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 25683-2023.docx", "A 25683-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 25683-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 25683-2023.docx", "A 25683-2023")</f>
         <v/>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 52775-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 52775-2022.xlsx", "A 52775-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 52775-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 52775-2022.png", "A 52775-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/knärot/A 52775-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/knärot/A 52775-2022.png", "A 52775-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 52775-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 52775-2022.docx", "A 52775-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 52775-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 52775-2022.docx", "A 52775-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 52775-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 52775-2022.docx", "A 52775-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 52775-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 52775-2022.docx", "A 52775-2022")</f>
         <v/>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,27 +1303,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 6178-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 6178-2023.xlsx", "A 6178-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 6178-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 6178-2023.png", "A 6178-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 6178-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 6178-2023.docx", "A 6178-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 6178-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 6178-2023.docx", "A 6178-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 6178-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 6178-2023.docx", "A 6178-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 6178-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 6178-2023.docx", "A 6178-2023")</f>
         <v/>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,27 +1391,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 37728-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 37728-2020.xlsx", "A 37728-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 37728-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 37728-2020.png", "A 37728-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 37728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 37728-2020.docx", "A 37728-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 37728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 37728-2020.docx", "A 37728-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 37728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 37728-2020.docx", "A 37728-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 37728-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 37728-2020.docx", "A 37728-2020")</f>
         <v/>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,27 +1483,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 19454-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 19454-2019.xlsx", "A 19454-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 19454-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 19454-2019.png", "A 19454-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 19454-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 19454-2019.docx", "A 19454-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 19454-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 19454-2019.docx", "A 19454-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 19454-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 19454-2019.docx", "A 19454-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 19454-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 19454-2019.docx", "A 19454-2019")</f>
         <v/>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1570,27 +1570,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 11804-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 11804-2022.xlsx", "A 11804-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 11804-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 11804-2022.png", "A 11804-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 11804-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 11804-2022.docx", "A 11804-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 11804-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 11804-2022.docx", "A 11804-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 11804-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 11804-2022.docx", "A 11804-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 11804-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 11804-2022.docx", "A 11804-2022")</f>
         <v/>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,31 +1656,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 12685-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 12685-2019.xlsx", "A 12685-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 12685-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 12685-2019.png", "A 12685-2019")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/knärot/A 12685-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/knärot/A 12685-2019.png", "A 12685-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 12685-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 12685-2019.docx", "A 12685-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 12685-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 12685-2019.docx", "A 12685-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 12685-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 12685-2019.docx", "A 12685-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 12685-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 12685-2019.docx", "A 12685-2019")</f>
         <v/>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,27 +1751,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 19456-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 19456-2019.xlsx", "A 19456-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 19456-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 19456-2019.png", "A 19456-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 19456-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 19456-2019.docx", "A 19456-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 19456-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 19456-2019.docx", "A 19456-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 19456-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 19456-2019.docx", "A 19456-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 19456-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 19456-2019.docx", "A 19456-2019")</f>
         <v/>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,27 +1837,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 32731-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 32731-2020.xlsx", "A 32731-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 32731-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 32731-2020.png", "A 32731-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 32731-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 32731-2020.docx", "A 32731-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 32731-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 32731-2020.docx", "A 32731-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 32731-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 32731-2020.docx", "A 32731-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 32731-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 32731-2020.docx", "A 32731-2020")</f>
         <v/>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1928,27 +1928,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 38302-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 38302-2020.xlsx", "A 38302-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 38302-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 38302-2020.png", "A 38302-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 38302-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 38302-2020.docx", "A 38302-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 38302-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 38302-2020.docx", "A 38302-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 38302-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 38302-2020.docx", "A 38302-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 38302-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 38302-2020.docx", "A 38302-2020")</f>
         <v/>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,27 +2019,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 24228-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 24228-2021.xlsx", "A 24228-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 24228-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 24228-2021.png", "A 24228-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 24228-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 24228-2021.docx", "A 24228-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 24228-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 24228-2021.docx", "A 24228-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 24228-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 24228-2021.docx", "A 24228-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 24228-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 24228-2021.docx", "A 24228-2021")</f>
         <v/>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2105,27 +2105,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 47228-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 47228-2022.xlsx", "A 47228-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 47228-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 47228-2022.png", "A 47228-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 47228-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 47228-2022.docx", "A 47228-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 47228-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 47228-2022.docx", "A 47228-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 47228-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 47228-2022.docx", "A 47228-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 47228-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 47228-2022.docx", "A 47228-2022")</f>
         <v/>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2190,27 +2190,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 64902-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 64902-2018.xlsx", "A 64902-2018")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 64902-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 64902-2018.png", "A 64902-2018")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 64902-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 64902-2018.docx", "A 64902-2018")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 64902-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 64902-2018.docx", "A 64902-2018")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 64902-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 64902-2018.docx", "A 64902-2018")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 64902-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 64902-2018.docx", "A 64902-2018")</f>
         <v/>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2275,27 +2275,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 6277-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 6277-2019.xlsx", "A 6277-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 6277-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 6277-2019.png", "A 6277-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 6277-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 6277-2019.docx", "A 6277-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 6277-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 6277-2019.docx", "A 6277-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 6277-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 6277-2019.docx", "A 6277-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 6277-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 6277-2019.docx", "A 6277-2019")</f>
         <v/>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2365,27 +2365,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 58427-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 58427-2019.xlsx", "A 58427-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 58427-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 58427-2019.png", "A 58427-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 58427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 58427-2019.docx", "A 58427-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 58427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 58427-2019.docx", "A 58427-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 58427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 58427-2019.docx", "A 58427-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 58427-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 58427-2019.docx", "A 58427-2019")</f>
         <v/>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2450,27 +2450,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 62438-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 62438-2019.xlsx", "A 62438-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 62438-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 62438-2019.png", "A 62438-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 62438-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 62438-2019.docx", "A 62438-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 62438-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 62438-2019.docx", "A 62438-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 62438-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 62438-2019.docx", "A 62438-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 62438-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 62438-2019.docx", "A 62438-2019")</f>
         <v/>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2540,27 +2540,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 21817-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 21817-2020.xlsx", "A 21817-2020")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 21817-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 21817-2020.png", "A 21817-2020")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 21817-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 21817-2020.docx", "A 21817-2020")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 21817-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 21817-2020.docx", "A 21817-2020")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 21817-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 21817-2020.docx", "A 21817-2020")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 21817-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 21817-2020.docx", "A 21817-2020")</f>
         <v/>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2630,27 +2630,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 69308-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 69308-2020.xlsx", "A 69308-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 69308-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 69308-2020.png", "A 69308-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 69308-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 69308-2020.docx", "A 69308-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 69308-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 69308-2020.docx", "A 69308-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 69308-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 69308-2020.docx", "A 69308-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 69308-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 69308-2020.docx", "A 69308-2020")</f>
         <v/>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2715,27 +2715,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 32862-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 32862-2021.xlsx", "A 32862-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 32862-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 32862-2021.png", "A 32862-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 32862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 32862-2021.docx", "A 32862-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 32862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 32862-2021.docx", "A 32862-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 32862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 32862-2021.docx", "A 32862-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 32862-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 32862-2021.docx", "A 32862-2021")</f>
         <v/>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2800,27 +2800,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 37464-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 37464-2021.xlsx", "A 37464-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 37464-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 37464-2021.png", "A 37464-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 37464-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 37464-2021.docx", "A 37464-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 37464-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 37464-2021.docx", "A 37464-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 37464-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 37464-2021.docx", "A 37464-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 37464-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 37464-2021.docx", "A 37464-2021")</f>
         <v/>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2890,27 +2890,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 12905-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 12905-2022.xlsx", "A 12905-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 12905-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 12905-2022.png", "A 12905-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 12905-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 12905-2022.docx", "A 12905-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 12905-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 12905-2022.docx", "A 12905-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 12905-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 12905-2022.docx", "A 12905-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 12905-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 12905-2022.docx", "A 12905-2022")</f>
         <v/>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2980,27 +2980,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 12894-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 12894-2022.xlsx", "A 12894-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 12894-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 12894-2022.png", "A 12894-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 12894-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 12894-2022.docx", "A 12894-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 12894-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 12894-2022.docx", "A 12894-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 12894-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 12894-2022.docx", "A 12894-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 12894-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 12894-2022.docx", "A 12894-2022")</f>
         <v/>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3065,27 +3065,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 30319-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 30319-2022.xlsx", "A 30319-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 30319-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 30319-2022.png", "A 30319-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 30319-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 30319-2022.docx", "A 30319-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 30319-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 30319-2022.docx", "A 30319-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 30319-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 30319-2022.docx", "A 30319-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 30319-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 30319-2022.docx", "A 30319-2022")</f>
         <v/>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3155,27 +3155,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 31568-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 31568-2022.xlsx", "A 31568-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 31568-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 31568-2022.png", "A 31568-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 31568-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 31568-2022.docx", "A 31568-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 31568-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 31568-2022.docx", "A 31568-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 31568-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 31568-2022.docx", "A 31568-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 31568-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 31568-2022.docx", "A 31568-2022")</f>
         <v/>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3240,27 +3240,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 42017-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 42017-2022.xlsx", "A 42017-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 42017-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 42017-2022.png", "A 42017-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 42017-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 42017-2022.docx", "A 42017-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 42017-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 42017-2022.docx", "A 42017-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 42017-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 42017-2022.docx", "A 42017-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 42017-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 42017-2022.docx", "A 42017-2022")</f>
         <v/>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3325,27 +3325,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 46098-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 46098-2022.xlsx", "A 46098-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 46098-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 46098-2022.png", "A 46098-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 46098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 46098-2022.docx", "A 46098-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 46098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 46098-2022.docx", "A 46098-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 46098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 46098-2022.docx", "A 46098-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 46098-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 46098-2022.docx", "A 46098-2022")</f>
         <v/>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3410,27 +3410,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 7832-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 7832-2023.xlsx", "A 7832-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 7832-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 7832-2023.png", "A 7832-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 7832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 7832-2023.docx", "A 7832-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 7832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 7832-2023.docx", "A 7832-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 7832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 7832-2023.docx", "A 7832-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 7832-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 7832-2023.docx", "A 7832-2023")</f>
         <v/>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3500,27 +3500,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 29787-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 29787-2023.xlsx", "A 29787-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 29787-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 29787-2023.png", "A 29787-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 29787-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 29787-2023.docx", "A 29787-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 29787-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 29787-2023.docx", "A 29787-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 29787-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 29787-2023.docx", "A 29787-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 29787-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 29787-2023.docx", "A 29787-2023")</f>
         <v/>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3590,27 +3590,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 30084-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 30084-2023.xlsx", "A 30084-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 30084-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 30084-2023.png", "A 30084-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 30084-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 30084-2023.docx", "A 30084-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 30084-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 30084-2023.docx", "A 30084-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 30084-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 30084-2023.docx", "A 30084-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 30084-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 30084-2023.docx", "A 30084-2023")</f>
         <v/>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3675,27 +3675,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 38849-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/artfynd/A 38849-2023.xlsx", "A 38849-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 38849-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/kartor/A 38849-2023.png", "A 38849-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 38849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomål/A 38849-2023.docx", "A 38849-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 38849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/klagomålsmail/A 38849-2023.docx", "A 38849-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 38849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsyn/A 38849-2023.docx", "A 38849-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 38849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VASTERAS/tillsynsmail/A 38849-2023.docx", "A 38849-2023")</f>
         <v/>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45180</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y498"/>
+  <dimension ref="A1:Y499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45180</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="R497" s="2" t="inlineStr"/>
     </row>
-    <row r="498">
+    <row r="498" ht="15" customHeight="1">
       <c r="A498" t="inlineStr">
         <is>
           <t>A 42257-2023</t>
@@ -30396,7 +30396,7 @@
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30442,6 +30442,63 @@
         <v>0</v>
       </c>
       <c r="R498" s="2" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>A 43753-2023</t>
+        </is>
+      </c>
+      <c r="B499" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C499" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="G499" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0</v>
+      </c>
+      <c r="K499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N499" t="n">
+        <v>0</v>
+      </c>
+      <c r="O499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R499" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45180</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45187</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45180</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45187</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45180</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45187</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y499"/>
+  <dimension ref="A1:Y500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45180</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
       </c>
       <c r="R498" s="2" t="inlineStr"/>
     </row>
-    <row r="499">
+    <row r="499" ht="15" customHeight="1">
       <c r="A499" t="inlineStr">
         <is>
           <t>A 43753-2023</t>
@@ -30453,7 +30453,7 @@
         <v>45187</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30499,6 +30499,63 @@
         <v>0</v>
       </c>
       <c r="R499" s="2" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>A 46189-2023</t>
+        </is>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C500" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="G500" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N500" t="n">
+        <v>0</v>
+      </c>
+      <c r="O500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R500" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>43335</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>43356</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         <v>43361</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43392</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43433</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43437</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43440</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43445</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         <v>43453</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43454</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>43455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>43478</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>43487</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>43502</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4931,7 +4931,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>43507</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43515</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43525</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43529</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43531</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43535</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43543</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43545</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43550</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43560</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43565</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43580</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43581</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43585</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43612</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43614</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43636</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43665</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43670</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43671</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43683</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6671,7 +6671,7 @@
         <v>43685</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>43689</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43691</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43692</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43699</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43700</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43706</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43709</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43712</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43720</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43726</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43727</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43731</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43732</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43733</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43738</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43740</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43742</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43745</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>43749</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>43753</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9551,7 +9551,7 @@
         <v>43754</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
         <v>43762</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>43766</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43768</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43769</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43775</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43776</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43782</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43789</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43791</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43794</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43795</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10411,7 +10411,7 @@
         <v>43798</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         <v>43802</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>43808</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>43839</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>43846</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43851</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43865</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43866</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>43867</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43869</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43878</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43880</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43887</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43893</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43902</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43909</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43913</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43916</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43920</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43922</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
         <v>43969</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43976</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43977</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43978</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43986</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43993</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
         <v>43999</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>44004</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         <v>44005</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44007</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44010</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44013</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44021</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44027</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44029</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13363,7 +13363,7 @@
         <v>44032</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13420,7 +13420,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13534,7 +13534,7 @@
         <v>44040</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13591,7 +13591,7 @@
         <v>44046</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13648,7 +13648,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13705,7 +13705,7 @@
         <v>44053</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>44064</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13881,7 +13881,7 @@
         <v>44067</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13938,7 +13938,7 @@
         <v>44068</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>44075</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>44078</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14285,7 +14285,7 @@
         <v>44082</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14342,7 +14342,7 @@
         <v>44083</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14399,7 +14399,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>44091</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>44096</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14756,7 +14756,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14813,7 +14813,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>44099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>44113</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>44116</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44123</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>44137</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>44147</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>44148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>44152</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         <v>44153</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>44155</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         <v>44159</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>44162</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>44165</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15807,7 +15807,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15864,7 +15864,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
         <v>44182</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>44183</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44187</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16149,7 +16149,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>44209</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44217</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16434,7 +16434,7 @@
         <v>44225</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16491,7 +16491,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16548,7 +16548,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         <v>44236</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44239</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44242</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44249</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>44253</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>44263</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44265</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>44272</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>44284</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>44294</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>44321</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>44330</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44336</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17646,7 +17646,7 @@
         <v>44340</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>44341</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>44342</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>44362</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>44364</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18045,7 +18045,7 @@
         <v>44369</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18102,7 +18102,7 @@
         <v>44370</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
         <v>44371</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>44377</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>44391</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44405</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44413</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44428</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44442</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44449</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44454</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44467</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44476</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44482</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44498</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44503</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>44508</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>44509</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>44516</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44523</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44525</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44531</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44540</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         <v>44543</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19951,7 +19951,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20008,7 +20008,7 @@
         <v>44551</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20065,7 +20065,7 @@
         <v>44552</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20122,7 +20122,7 @@
         <v>44556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44559</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44571</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44572</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20464,7 +20464,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44574</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44582</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20640,7 +20640,7 @@
         <v>44594</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20697,7 +20697,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>44601</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>44607</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         <v>44610</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21096,7 +21096,7 @@
         <v>44627</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>44628</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>44635</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44636</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>44637</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21557,7 +21557,7 @@
         <v>44642</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21614,7 +21614,7 @@
         <v>44645</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>44657</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21728,7 +21728,7 @@
         <v>44658</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>44662</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21842,7 +21842,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21899,7 +21899,7 @@
         <v>44664</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21956,7 +21956,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44671</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44678</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44686</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44691</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44698</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44699</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44711</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44715</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44722</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44733</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44739</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44740</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44743</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44755</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44757</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23173,7 +23173,7 @@
         <v>44761</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
         <v>44762</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23287,7 +23287,7 @@
         <v>44764</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23406,7 +23406,7 @@
         <v>44775</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23468,7 +23468,7 @@
         <v>44791</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23525,7 +23525,7 @@
         <v>44792</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23582,7 +23582,7 @@
         <v>44802</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23639,7 +23639,7 @@
         <v>44812</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23696,7 +23696,7 @@
         <v>44816</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23753,7 +23753,7 @@
         <v>44824</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         <v>44826</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23872,7 +23872,7 @@
         <v>44833</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>44840</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>44866</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>44880</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44888</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24224,7 +24224,7 @@
         <v>44889</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
         <v>44890</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>44893</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44901</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44902</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44903</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44908</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24923,7 +24923,7 @@
         <v>44912</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24980,7 +24980,7 @@
         <v>44915</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25037,7 +25037,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25094,7 +25094,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>44936</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25265,7 +25265,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25436,7 +25436,7 @@
         <v>44958</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25493,7 +25493,7 @@
         <v>44961</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         <v>44967</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25607,7 +25607,7 @@
         <v>44978</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25669,7 +25669,7 @@
         <v>44987</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
         <v>44988</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25788,7 +25788,7 @@
         <v>44991</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
         <v>44994</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25902,7 +25902,7 @@
         <v>44999</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25959,7 +25959,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26016,7 +26016,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26073,7 +26073,7 @@
         <v>45001</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26130,7 +26130,7 @@
         <v>45005</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26187,7 +26187,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         <v>45019</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26301,7 +26301,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26358,7 +26358,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45027</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45028</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26700,7 +26700,7 @@
         <v>45033</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26871,7 +26871,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>45037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26990,7 +26990,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45042</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27166,7 +27166,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27223,7 +27223,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27337,7 +27337,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27394,7 +27394,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>45051</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45072</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>45077</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>45078</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27798,7 +27798,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27912,7 +27912,7 @@
         <v>45082</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27969,7 +27969,7 @@
         <v>45083</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28026,7 +28026,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28083,7 +28083,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28140,7 +28140,7 @@
         <v>45091</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         <v>45096</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45099</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28316,7 +28316,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28378,7 +28378,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         <v>45103</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45110</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28678,7 +28678,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28797,7 +28797,7 @@
         <v>45114</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28859,7 +28859,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28921,7 +28921,7 @@
         <v>45119</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29045,7 +29045,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45121</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29169,7 +29169,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29231,7 +29231,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29288,7 +29288,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>45125</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29412,7 +29412,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>45147</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29531,7 +29531,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29588,7 +29588,7 @@
         <v>45153</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29645,7 +29645,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29702,7 +29702,7 @@
         <v>45160</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29759,7 +29759,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>45162</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>45163</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>45169</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30163,7 +30163,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>45180</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30396,7 +30396,7 @@
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>45187</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30510,7 +30510,7 @@
         <v>45196</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y501"/>
+  <dimension ref="A1:Y502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44754</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43742</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>43588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>45089</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1154,7 +1154,7 @@
         <v>44871</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>44964</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>44056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>43565</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         <v>44634</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>43524</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>43565</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>44019</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44060</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43431</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>43493</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>43773</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>43788</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43958</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44188</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44375</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44760</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44775</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>44830</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44847</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>44973</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>45110</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>45163</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45203</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43335</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>43356</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         <v>43361</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43361</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>43369</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43392</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>43437</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>43440</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>43445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>43447</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43453</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43478</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43502</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43502</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43502</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43502</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43507</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43525</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43525</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43531</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43535</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43543</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43545</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43550</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43560</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43560</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43565</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43565</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43580</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43581</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43585</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43612</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43614</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43636</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43636</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43665</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43670</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43671</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43683</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43685</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43689</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>43689</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>43689</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>43691</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43692</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43699</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>43700</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>43700</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43703</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43706</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43706</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43709</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43709</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43712</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43712</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43712</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43712</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43713</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43713</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43720</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43720</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43724</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>43726</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>43727</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>43731</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>43732</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>43732</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>43733</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43734</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43735</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43737</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>43738</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>43740</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>43741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>43742</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>43742</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>43742</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>43745</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>43745</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>43748</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>43748</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>43749</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>43753</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43754</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43762</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43766</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43768</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43769</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43775</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43776</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43782</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43782</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43788</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43789</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43789</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43791</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43794</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10439,7 +10439,7 @@
         <v>43795</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10496,7 +10496,7 @@
         <v>43798</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10553,7 +10553,7 @@
         <v>43802</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>43802</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>43808</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>43811</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>43839</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
         <v>43846</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>43847</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>43850</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>43850</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>43851</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>43859</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>43865</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>43866</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43866</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43866</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>43867</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>43867</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>43867</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43869</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>43878</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>43880</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>43887</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>43893</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>43902</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>43909</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>43913</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>43913</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>43914</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43922</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43969</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>43976</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>43976</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43977</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>43978</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>43986</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>43993</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>43999</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>43999</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44005</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44007</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44007</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44010</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44013</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44021</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>44027</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13391,7 +13391,7 @@
         <v>44029</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44032</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>44032</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>44032</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44040</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44046</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44046</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>44053</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>44060</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44064</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44067</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44068</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44068</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44068</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>44075</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44078</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>44078</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44082</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>44083</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44083</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44091</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>44091</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>44096</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44096</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44096</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44096</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44096</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44099</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44113</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>44116</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44116</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>44123</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44137</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44137</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44147</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44152</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>44152</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44153</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44155</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>44159</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44162</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>44165</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>44165</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44179</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44182</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44183</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44183</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>44187</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44209</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44217</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>44217</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44217</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44225</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44225</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44225</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44236</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44238</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44239</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44242</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>44249</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44249</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44253</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>44253</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44263</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>44264</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>44265</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>44272</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>44284</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17498,7 +17498,7 @@
         <v>44294</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17555,7 +17555,7 @@
         <v>44321</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
         <v>44330</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17669,7 +17669,7 @@
         <v>44336</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         <v>44340</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>44340</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17845,7 +17845,7 @@
         <v>44341</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17902,7 +17902,7 @@
         <v>44342</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>44342</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18016,7 +18016,7 @@
         <v>44362</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
         <v>44364</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18130,7 +18130,7 @@
         <v>44369</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>44370</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>44371</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44371</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>44377</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>44391</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>44405</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>44405</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>44412</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>44413</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>44428</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44432</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18824,7 +18824,7 @@
         <v>44432</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>44442</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>44449</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>44454</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19052,7 +19052,7 @@
         <v>44467</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19109,7 +19109,7 @@
         <v>44476</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19166,7 +19166,7 @@
         <v>44481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44482</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44498</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44503</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44503</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44508</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>44509</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>44516</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19622,7 +19622,7 @@
         <v>44523</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         <v>44523</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44523</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44525</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44531</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>44540</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>44543</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>44543</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44551</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>44552</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>44556</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>44559</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44571</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>44571</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>44572</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20492,7 +20492,7 @@
         <v>44572</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20549,7 +20549,7 @@
         <v>44572</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
         <v>44574</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44582</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20725,7 +20725,7 @@
         <v>44594</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         <v>44594</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
         <v>44601</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
         <v>44607</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>44607</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>44610</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>44610</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
         <v>44610</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44627</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44628</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44628</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44635</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21409,7 +21409,7 @@
         <v>44635</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21466,7 +21466,7 @@
         <v>44636</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>44636</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44637</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44642</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44645</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>44657</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44658</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44662</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44662</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44664</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44664</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22098,7 +22098,7 @@
         <v>44664</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22155,7 +22155,7 @@
         <v>44671</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>44671</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>44678</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>44686</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44691</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>44692</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22507,7 +22507,7 @@
         <v>44698</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         <v>44699</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22621,7 +22621,7 @@
         <v>44711</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22678,7 +22678,7 @@
         <v>44715</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>44722</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         <v>44733</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44739</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44739</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22968,7 +22968,7 @@
         <v>44740</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23025,7 +23025,7 @@
         <v>44743</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23082,7 +23082,7 @@
         <v>44743</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23139,7 +23139,7 @@
         <v>44755</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23196,7 +23196,7 @@
         <v>44757</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23258,7 +23258,7 @@
         <v>44761</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23372,7 +23372,7 @@
         <v>44764</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23429,7 +23429,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44775</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23553,7 +23553,7 @@
         <v>44791</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44792</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44802</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44812</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44816</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>44824</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23900,7 +23900,7 @@
         <v>44826</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44833</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44840</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24076,7 +24076,7 @@
         <v>44866</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24133,7 +24133,7 @@
         <v>44880</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24190,7 +24190,7 @@
         <v>44880</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24247,7 +24247,7 @@
         <v>44888</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>44889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24366,7 +24366,7 @@
         <v>44890</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>44893</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>44893</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>44893</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
         <v>44901</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44901</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         <v>44902</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>44903</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>44903</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>44908</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>44908</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25008,7 +25008,7 @@
         <v>44912</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25065,7 +25065,7 @@
         <v>44915</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>44915</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25179,7 +25179,7 @@
         <v>44928</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>44935</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>44936</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>44936</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>44936</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>44958</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>44961</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>44967</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>44978</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>44987</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>44988</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44991</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44994</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44999</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44999</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44999</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>45001</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>45005</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>45008</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>45019</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>45019</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45019</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45019</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45019</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>45027</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26671,7 +26671,7 @@
         <v>45028</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26728,7 +26728,7 @@
         <v>45028</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26785,7 +26785,7 @@
         <v>45033</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
         <v>45033</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26899,7 +26899,7 @@
         <v>45033</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45033</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45037</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>45042</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>45042</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45042</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>45042</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45042</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45042</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45042</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45042</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45042</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45051</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45072</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45077</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>45078</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>45078</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>45078</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>45082</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28054,7 +28054,7 @@
         <v>45083</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28111,7 +28111,7 @@
         <v>45083</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28168,7 +28168,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28225,7 +28225,7 @@
         <v>45091</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28282,7 +28282,7 @@
         <v>45096</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>45099</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28401,7 +28401,7 @@
         <v>45099</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
         <v>45099</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45103</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>45110</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45110</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45110</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>45110</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>45110</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45114</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45114</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45119</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45119</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45119</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>45121</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>45121</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>45121</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>45121</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45125</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>45125</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>45147</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>45153</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>45153</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45160</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>45160</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>45162</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>45162</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>45163</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45163</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30129,7 +30129,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>45169</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>45180</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>45180</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>45180</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>45180</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>45187</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30585,7 +30585,7 @@
       </c>
       <c r="R500" s="2" t="inlineStr"/>
     </row>
-    <row r="501">
+    <row r="501" ht="15" customHeight="1">
       <c r="A501" t="inlineStr">
         <is>
           <t>A 46189-2023</t>
@@ -30595,7 +30595,7 @@
         <v>45196</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30641,6 +30641,63 @@
         <v>0</v>
       </c>
       <c r="R501" s="2" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>A 48367-2023</t>
+        </is>
+      </c>
+      <c r="B502" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C502" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="G502" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N502" t="n">
+        <v>0</v>
+      </c>
+      <c r="O502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R502" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
